--- a/GATEWAY/A1#111#EVOLUZIONEXX/EVOLUZIONE/EVO_FSE/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#EVOLUZIONEXX/EVOLUZIONE/EVO_FSE/1.0/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="163">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -219,6 +219,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">EVO_FSE</t>
     </r>
@@ -242,6 +243,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">EVOLUZIONE</t>
     </r>
@@ -265,6 +267,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1.0</t>
     </r>
@@ -352,13 +355,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-06T10:55:12Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f2c9b8c712eb062e4f252d1f9bac8912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.993dfcc0cf4a6624134ade3b69f58af044d4c6807e69dfd5d1b22a27764bc49c.eb1cc387ae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-05-07T14:25:21Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e00909299389c792ce116deb242ea92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.8c3cd434d8786ded09fda96185addcd5185d2d36cbf5ab454b896db9716ff1b3.a82abaf882^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -374,13 +377,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-06T11:24:58Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">396fe799c3f768dabadd503951e88bb1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.88707636c6634ab86da0aa236cfadde6aeaf2443e18bdd32d633ebfdfd3b5eb2.2f04dbbc4a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-05-07T14:27:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09e7b0f12393de08d13967d6f171eb12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.6fabbd0a44b810982f7d16a6b4b54f4f63eb88ec7cd762b8fc776f455ff84021.0e0a680f88^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
@@ -393,10 +396,10 @@
 Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-04-30T12:55:05Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b386f35f2718e8a593170d77a6b04f75</t>
+    <t xml:space="preserve">2025-05-07T14:37:23Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b091b46f8f01cabb2bc8252670658361</t>
   </si>
   <si>
     <t xml:space="preserve">UNKNOWN</t>
@@ -424,10 +427,10 @@
 Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-04-30T12:55:37Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2052340e81254fa9a8dd04326c0ddfec</t>
+    <t xml:space="preserve">2025-05-07T14:40:04Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69bfdae24679fe2ff35bc0be3073afd1</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
@@ -444,10 +447,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-04-30T12:58:12Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d461f46b8ba133a054dd42bb6571b5a4</t>
+    <t xml:space="preserve">2025-05-07T14:44:34Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f9c13045441bd572ce0938863dcf9a07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.dd6b210e04a94421f3e834546db914dd639ce8b49d075946e2ef73e626d5955c.30804f7f28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT8_KO</t>
@@ -498,10 +504,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-04-30T12:58:57Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8b595825d703aac4c15705412ba7c4ef</t>
+    <t xml:space="preserve">2025-05-07T14:47:48Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50178b4c44db67b2bd0eadd14de90a6f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.c49d2f8061dce26dd8854b86139eb9e678cac11707b1afdf34c2242b00cc8974.710fc28032^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -800,6 +809,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -955,14 +965,14 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
+      <right/>
       <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
+      <right style="thin"/>
       <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -1004,7 +1014,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1141,35 +1151,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1348,7 +1342,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -1435,7 +1429,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -2509,17 +2503,17 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="104.82"/>
@@ -2800,7 +2794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="n">
         <v>448</v>
       </c>
@@ -2817,7 +2811,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="29" t="n">
-        <v>45783</v>
+        <v>45784</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>51</v>
@@ -2847,7 +2841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="n">
         <v>449</v>
       </c>
@@ -2864,7 +2858,7 @@
         <v>57</v>
       </c>
       <c r="F11" s="29" t="n">
-        <v>45783</v>
+        <v>45784</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>58</v>
@@ -2894,7 +2888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="n">
         <v>32</v>
       </c>
@@ -2910,19 +2904,19 @@
       <c r="E12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="35" t="n">
-        <v>45777</v>
-      </c>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="29" t="n">
+        <v>45784</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="35" t="s">
         <v>54</v>
       </c>
       <c r="K12" s="31"/>
@@ -2933,7 +2927,7 @@
       <c r="N12" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="35" t="s">
         <v>66</v>
       </c>
       <c r="P12" s="31" t="s">
@@ -2945,7 +2939,7 @@
       <c r="R12" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="37" t="s">
+      <c r="S12" s="35" t="s">
         <v>68</v>
       </c>
       <c r="T12" s="31"/>
@@ -2955,7 +2949,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="n">
         <v>40</v>
       </c>
@@ -2971,19 +2965,19 @@
       <c r="E13" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="35" t="n">
-        <v>45777</v>
-      </c>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="29" t="n">
+        <v>45784</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="35" t="s">
         <v>54</v>
       </c>
       <c r="K13" s="31"/>
@@ -2994,7 +2988,7 @@
       <c r="N13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="35" t="s">
         <v>66</v>
       </c>
       <c r="P13" s="31" t="s">
@@ -3006,7 +3000,7 @@
       <c r="R13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="37" t="s">
+      <c r="S13" s="35" t="s">
         <v>68</v>
       </c>
       <c r="T13" s="31"/>
@@ -3016,7 +3010,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="n">
         <v>48</v>
       </c>
@@ -3032,13 +3026,13 @@
       <c r="E14" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="35" t="n">
-        <v>45777</v>
-      </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37" t="s">
+      <c r="F14" s="36" t="n">
+        <v>45784</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="35" t="s">
         <v>54</v>
       </c>
       <c r="K14" s="31"/>
@@ -3049,7 +3043,7 @@
       <c r="N14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="35" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="31" t="s">
@@ -3061,7 +3055,7 @@
       <c r="R14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S14" s="35" t="s">
         <v>68</v>
       </c>
       <c r="T14" s="31"/>
@@ -3073,7 +3067,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
         <v>152</v>
       </c>
@@ -3089,19 +3083,19 @@
       <c r="E15" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="35" t="n">
-        <v>45777</v>
-      </c>
-      <c r="G15" s="36" t="s">
+      <c r="F15" s="29" t="n">
+        <v>45784</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="37" t="s">
+      <c r="I15" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="35" t="s">
         <v>54</v>
       </c>
       <c r="K15" s="31"/>
@@ -3112,7 +3106,7 @@
       <c r="N15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="35" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="31" t="s">
@@ -3124,7 +3118,7 @@
       <c r="R15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="37" t="s">
+      <c r="S15" s="35" t="s">
         <v>68</v>
       </c>
       <c r="T15" s="31"/>
@@ -3134,7 +3128,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
         <v>154</v>
       </c>
@@ -3145,20 +3139,20 @@
         <v>48</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
@@ -3175,7 +3169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
         <v>155</v>
       </c>
@@ -3186,20 +3180,20 @@
         <v>48</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="30"/>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K17" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
@@ -3216,7 +3210,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="n">
         <v>156</v>
       </c>
@@ -3227,20 +3221,20 @@
         <v>48</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
@@ -3257,7 +3251,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="n">
         <v>158</v>
       </c>
@@ -3268,20 +3262,20 @@
         <v>48</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="30"/>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
@@ -3298,7 +3292,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="n">
         <v>159</v>
       </c>
@@ -3309,20 +3303,20 @@
         <v>48</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="30"/>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
@@ -3339,7 +3333,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="n">
         <v>160</v>
       </c>
@@ -3350,22 +3344,22 @@
         <v>48</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="39" t="n">
-        <v>45777</v>
-      </c>
-      <c r="G21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="F21" s="36" t="n">
+        <v>45784</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="I21" s="40" t="s">
-        <v>65</v>
+      <c r="H21" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>54</v>
@@ -3378,7 +3372,7 @@
       <c r="N21" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="O21" s="37" t="s">
         <v>66</v>
       </c>
       <c r="P21" s="31" t="s">
@@ -3390,7 +3384,7 @@
       <c r="R21" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="38" t="s">
+      <c r="S21" s="35" t="s">
         <v>68</v>
       </c>
       <c r="T21" s="31"/>
@@ -3400,7 +3394,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="n">
         <v>161</v>
       </c>
@@ -3411,20 +3405,20 @@
         <v>48</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="30"/>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K22" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
@@ -3441,7 +3435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="n">
         <v>162</v>
       </c>
@@ -3452,20 +3446,20 @@
         <v>48</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="38" t="s">
+      <c r="J23" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
@@ -3482,7 +3476,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="n">
         <v>163</v>
       </c>
@@ -3493,20 +3487,20 @@
         <v>48</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
@@ -3523,7 +3517,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="n">
         <v>164</v>
       </c>
@@ -3534,20 +3528,20 @@
         <v>48</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="30"/>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
@@ -3564,7 +3558,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="n">
         <v>165</v>
       </c>
@@ -3575,20 +3569,20 @@
         <v>48</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
@@ -3605,7 +3599,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="n">
         <v>166</v>
       </c>
@@ -3616,20 +3610,20 @@
         <v>48</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
@@ -3646,7 +3640,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="n">
         <v>167</v>
       </c>
@@ -3657,20 +3651,20 @@
         <v>48</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K28" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
@@ -3687,7 +3681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="n">
         <v>168</v>
       </c>
@@ -3698,20 +3692,20 @@
         <v>48</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="30"/>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K29" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
@@ -3728,7 +3722,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="26" t="n">
         <v>169</v>
       </c>
@@ -3739,20 +3733,20 @@
         <v>48</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="30"/>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="35" t="s">
         <v>67</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
@@ -3769,7 +3763,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="n">
         <v>461</v>
       </c>
@@ -3780,10 +3774,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -3793,7 +3787,7 @@
         <v>67</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L31" s="26"/>
       <c r="M31" s="31"/>
@@ -3810,7 +3804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="n">
         <v>468</v>
       </c>
@@ -3821,10 +3815,10 @@
         <v>48</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
@@ -3834,7 +3828,7 @@
         <v>67</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L32" s="26"/>
       <c r="M32" s="31"/>
@@ -8139,46 +8133,46 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -8205,7 +8199,7 @@
       <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -8218,169 +8212,169 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="43" t="s">
         <v>128</v>
       </c>
+      <c r="F1" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="40" t="s">
         <v>132</v>
       </c>
+      <c r="C2" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="46" t="s">
+      <c r="A3" s="40" t="s">
         <v>135</v>
       </c>
+      <c r="B3" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>138</v>
       </c>
+      <c r="B4" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="46" t="s">
+      <c r="A5" s="40" t="s">
         <v>141</v>
       </c>
+      <c r="B5" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="47" t="s">
+      <c r="A6" s="40" t="s">
         <v>144</v>
       </c>
+      <c r="B6" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="47" t="s">
+      <c r="A7" s="40" t="s">
         <v>147</v>
       </c>
+      <c r="B7" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>149</v>
+      <c r="B8" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="47" t="s">
+      <c r="A9" s="40" t="s">
         <v>152</v>
       </c>
+      <c r="B9" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="46" t="s">
+      <c r="A10" s="40" t="s">
         <v>155</v>
       </c>
+      <c r="B10" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="47" t="s">
+      <c r="A11" s="40" t="s">
         <v>158</v>
       </c>
+      <c r="B11" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="49"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="49"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9353,7 +9347,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -9361,32 +9355,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="46" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#EVOLUZIONEXX/EVOLUZIONE/EVO_FSE/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#EVOLUZIONEXX/EVOLUZIONE/EVO_FSE/1.0/report-checklist.xlsx
@@ -355,13 +355,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-07T14:25:21Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8e00909299389c792ce116deb242ea92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.8c3cd434d8786ded09fda96185addcd5185d2d36cbf5ab454b896db9716ff1b3.a82abaf882^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-05-09T12:36:15Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b3859f77daa763f06c83238f1707b24f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.fdd05026c5ef2b8dde91e1c90f984e6cb6ad062190a55420de5ce12e1da0ba08.54120c640d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -377,13 +377,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-07T14:27:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09e7b0f12393de08d13967d6f171eb12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.6fabbd0a44b810982f7d16a6b4b54f4f63eb88ec7cd762b8fc776f455ff84021.0e0a680f88^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-05-09T12:41:26Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8efd2f7d36bf0b0448ee10fe5ea1e2b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.3a6bff7c8638295245477f9555e5dd55ddd326efd0faf8229a41af5e478c2049.006fd5abe2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
@@ -396,10 +396,10 @@
 Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-07T14:37:23Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b091b46f8f01cabb2bc8252670658361</t>
+    <t xml:space="preserve">2025-05-09T12:25:32Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc9693647391916a7fd7bf74b3232712</t>
   </si>
   <si>
     <t xml:space="preserve">UNKNOWN</t>
@@ -427,10 +427,10 @@
 Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-07T14:40:04Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69bfdae24679fe2ff35bc0be3073afd1</t>
+    <t xml:space="preserve">2025-05-09T12:27:14Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">693d1c44f06005ebbd9b8da16ffc80ab</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RSA_TIMEOUT</t>
@@ -447,13 +447,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-07T14:44:34Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f9c13045441bd572ce0938863dcf9a07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.dd6b210e04a94421f3e834546db914dd639ce8b49d075946e2ef73e626d5955c.30804f7f28^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-05-09T12:42:35Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51c214dcb5b4ccd1a0eac2d33d169fc8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.640382ee9cf0ce83d1a5a903d715f8c94ea46f4303c94962e02b7c5bf1ae4c38.5a79b18ee6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT8_KO</t>
@@ -504,13 +504,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-07T14:47:48Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50178b4c44db67b2bd0eadd14de90a6f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.c49d2f8061dce26dd8854b86139eb9e678cac11707b1afdf34c2242b00cc8974.710fc28032^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-05-09T12:43:34Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445f88d71ac47f73c3dfa8e2d2c6bca6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.397dc10b54901011c0820feb570a7e5636189b210d3770157ab7a645cd46777d.500b98431e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT15_KO</t>
@@ -728,7 +728,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -819,12 +819,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="11"/>
@@ -848,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -966,13 +960,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
       <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -1151,7 +1138,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1159,15 +1150,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1342,7 +1329,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -1429,7 +1416,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -2507,10 +2494,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -2794,7 +2781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="n">
         <v>448</v>
       </c>
@@ -2811,7 +2798,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="29" t="n">
-        <v>45784</v>
+        <v>45786</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>51</v>
@@ -2841,7 +2828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="n">
         <v>449</v>
       </c>
@@ -2858,7 +2845,7 @@
         <v>57</v>
       </c>
       <c r="F11" s="29" t="n">
-        <v>45784</v>
+        <v>45786</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>58</v>
@@ -2888,7 +2875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="n">
         <v>32</v>
       </c>
@@ -2905,7 +2892,7 @@
         <v>62</v>
       </c>
       <c r="F12" s="29" t="n">
-        <v>45784</v>
+        <v>45786</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>63</v>
@@ -2913,10 +2900,10 @@
       <c r="H12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K12" s="31"/>
@@ -2927,7 +2914,7 @@
       <c r="N12" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="O12" s="36" t="s">
         <v>66</v>
       </c>
       <c r="P12" s="31" t="s">
@@ -2939,7 +2926,7 @@
       <c r="R12" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="35" t="s">
+      <c r="S12" s="36" t="s">
         <v>68</v>
       </c>
       <c r="T12" s="31"/>
@@ -2949,7 +2936,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="n">
         <v>40</v>
       </c>
@@ -2966,7 +2953,7 @@
         <v>71</v>
       </c>
       <c r="F13" s="29" t="n">
-        <v>45784</v>
+        <v>45786</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>72</v>
@@ -2974,10 +2961,10 @@
       <c r="H13" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K13" s="31"/>
@@ -2988,7 +2975,7 @@
       <c r="N13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="35" t="s">
+      <c r="O13" s="36" t="s">
         <v>66</v>
       </c>
       <c r="P13" s="31" t="s">
@@ -3000,7 +2987,7 @@
       <c r="R13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="35" t="s">
+      <c r="S13" s="36" t="s">
         <v>68</v>
       </c>
       <c r="T13" s="31"/>
@@ -3010,7 +2997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="n">
         <v>48</v>
       </c>
@@ -3026,13 +3013,13 @@
       <c r="E14" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="36" t="n">
-        <v>45784</v>
+      <c r="F14" s="29" t="n">
+        <v>45786</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="35" t="s">
+      <c r="J14" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K14" s="31"/>
@@ -3043,7 +3030,7 @@
       <c r="N14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="35" t="s">
+      <c r="O14" s="36" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="31" t="s">
@@ -3055,7 +3042,7 @@
       <c r="R14" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="35" t="s">
+      <c r="S14" s="36" t="s">
         <v>68</v>
       </c>
       <c r="T14" s="31"/>
@@ -3067,7 +3054,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
         <v>152</v>
       </c>
@@ -3084,7 +3071,7 @@
         <v>77</v>
       </c>
       <c r="F15" s="29" t="n">
-        <v>45784</v>
+        <v>45786</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>78</v>
@@ -3095,7 +3082,7 @@
       <c r="I15" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="36" t="s">
         <v>54</v>
       </c>
       <c r="K15" s="31"/>
@@ -3106,7 +3093,7 @@
       <c r="N15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="35" t="s">
+      <c r="O15" s="36" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="31" t="s">
@@ -3118,7 +3105,7 @@
       <c r="R15" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="35" t="s">
+      <c r="S15" s="36" t="s">
         <v>68</v>
       </c>
       <c r="T15" s="31"/>
@@ -3128,7 +3115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
         <v>154</v>
       </c>
@@ -3148,7 +3135,7 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K16" s="31" t="s">
@@ -3169,7 +3156,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
         <v>155</v>
       </c>
@@ -3189,7 +3176,7 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="30"/>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K17" s="31" t="s">
@@ -3210,7 +3197,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="n">
         <v>156</v>
       </c>
@@ -3230,7 +3217,7 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="35" t="s">
+      <c r="J18" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K18" s="31" t="s">
@@ -3251,7 +3238,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="n">
         <v>158</v>
       </c>
@@ -3271,7 +3258,7 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="30"/>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K19" s="31" t="s">
@@ -3292,7 +3279,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="n">
         <v>159</v>
       </c>
@@ -3312,7 +3299,7 @@
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="30"/>
-      <c r="J20" s="35" t="s">
+      <c r="J20" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K20" s="31" t="s">
@@ -3333,7 +3320,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="n">
         <v>160</v>
       </c>
@@ -3349,8 +3336,8 @@
       <c r="E21" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="36" t="n">
-        <v>45784</v>
+      <c r="F21" s="29" t="n">
+        <v>45786</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>95</v>
@@ -3384,7 +3371,7 @@
       <c r="R21" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="35" t="s">
+      <c r="S21" s="36" t="s">
         <v>68</v>
       </c>
       <c r="T21" s="31"/>
@@ -3394,7 +3381,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="n">
         <v>161</v>
       </c>
@@ -3414,7 +3401,7 @@
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="30"/>
-      <c r="J22" s="35" t="s">
+      <c r="J22" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K22" s="31" t="s">
@@ -3435,7 +3422,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="n">
         <v>162</v>
       </c>
@@ -3455,7 +3442,7 @@
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="35" t="s">
+      <c r="J23" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K23" s="31" t="s">
@@ -3476,7 +3463,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="n">
         <v>163</v>
       </c>
@@ -3496,7 +3483,7 @@
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="35" t="s">
+      <c r="J24" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K24" s="31" t="s">
@@ -3517,7 +3504,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="n">
         <v>164</v>
       </c>
@@ -3537,7 +3524,7 @@
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="30"/>
-      <c r="J25" s="35" t="s">
+      <c r="J25" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K25" s="31" t="s">
@@ -3558,7 +3545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="n">
         <v>165</v>
       </c>
@@ -3578,7 +3565,7 @@
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K26" s="31" t="s">
@@ -3599,7 +3586,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="n">
         <v>166</v>
       </c>
@@ -3619,7 +3606,7 @@
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K27" s="31" t="s">
@@ -3640,7 +3627,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="n">
         <v>167</v>
       </c>
@@ -3660,7 +3647,7 @@
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="30"/>
-      <c r="J28" s="35" t="s">
+      <c r="J28" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K28" s="31" t="s">
@@ -3681,7 +3668,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="n">
         <v>168</v>
       </c>
@@ -3701,7 +3688,7 @@
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="30"/>
-      <c r="J29" s="35" t="s">
+      <c r="J29" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K29" s="31" t="s">
@@ -3722,7 +3709,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="26" t="n">
         <v>169</v>
       </c>
@@ -3742,7 +3729,7 @@
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="30"/>
-      <c r="J30" s="35" t="s">
+      <c r="J30" s="36" t="s">
         <v>67</v>
       </c>
       <c r="K30" s="31" t="s">
@@ -3763,7 +3750,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="n">
         <v>461</v>
       </c>
@@ -3804,7 +3791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="n">
         <v>468</v>
       </c>
@@ -8199,7 +8186,7 @@
       <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -9347,7 +9334,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>

--- a/GATEWAY/A1#111#EVOLUZIONEXX/EVOLUZIONE/EVO_FSE/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#EVOLUZIONEXX/EVOLUZIONE/EVO_FSE/1.0/report-checklist.xlsx
@@ -355,13 +355,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-09T12:36:15Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b3859f77daa763f06c83238f1707b24f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.fdd05026c5ef2b8dde91e1c90f984e6cb6ad062190a55420de5ce12e1da0ba08.54120c640d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-05-14T14:15:25Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c221fa2316228317087d30aeb8908134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.99eac8bf161ef3e146b726316baecf227a7fc0120c9614b2fa8b9affc74ed55b.3745112266^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -377,13 +377,13 @@
 Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-05-09T12:41:26Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8efd2f7d36bf0b0448ee10fe5ea1e2b1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.3a6bff7c8638295245477f9555e5dd55ddd326efd0faf8229a41af5e478c2049.006fd5abe2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-05-14T14:18:22Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5c557d72c5059cf6dba239553f0c82fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.62701abd63d9a5500afb55c83465b782d7530bc1e6c097ba78e6be0e89ea22c9.51b4ec0f2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
@@ -1001,7 +1001,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1122,6 +1122,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
@@ -1138,16 +1142,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1329,7 +1333,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -1416,7 +1420,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -2494,10 +2498,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I13" activeCellId="0" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -2781,7 +2785,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="n">
         <v>448</v>
       </c>
@@ -2798,37 +2802,37 @@
         <v>50</v>
       </c>
       <c r="F10" s="29" t="n">
-        <v>45786</v>
-      </c>
-      <c r="G10" s="29" t="s">
+        <v>45791</v>
+      </c>
+      <c r="G10" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="31" t="s">
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="n">
         <v>449</v>
       </c>
@@ -2845,37 +2849,37 @@
         <v>57</v>
       </c>
       <c r="F11" s="29" t="n">
-        <v>45786</v>
-      </c>
-      <c r="G11" s="29" t="s">
+        <v>45791</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="31" t="s">
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="n">
         <v>32</v>
       </c>
@@ -2906,37 +2910,37 @@
       <c r="J12" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31" t="s">
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="32" t="s">
         <v>54</v>
       </c>
       <c r="O12" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" s="31" t="s">
+      <c r="Q12" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="R12" s="31" t="s">
+      <c r="R12" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S12" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="T12" s="31"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="31" t="s">
+      <c r="T12" s="32"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="n">
         <v>40</v>
       </c>
@@ -2967,37 +2971,37 @@
       <c r="J13" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31" t="s">
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="32" t="s">
         <v>54</v>
       </c>
       <c r="O13" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="Q13" s="31" t="s">
+      <c r="Q13" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="R13" s="31" t="s">
+      <c r="R13" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S13" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="T13" s="31"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="31" t="s">
+      <c r="T13" s="32"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="n">
         <v>48</v>
       </c>
@@ -3018,43 +3022,43 @@
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31" t="s">
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="32" t="s">
         <v>54</v>
       </c>
       <c r="O14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="P14" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" s="31" t="s">
+      <c r="Q14" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="R14" s="31" t="s">
+      <c r="R14" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S14" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="T14" s="31"/>
-      <c r="U14" s="32" t="s">
+      <c r="T14" s="32"/>
+      <c r="U14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="V14" s="33"/>
-      <c r="W14" s="31" t="s">
+      <c r="V14" s="34"/>
+      <c r="W14" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
         <v>152</v>
       </c>
@@ -3079,43 +3083,43 @@
       <c r="H15" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="37" t="s">
         <v>80</v>
       </c>
       <c r="J15" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31" t="s">
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="32" t="s">
         <v>54</v>
       </c>
       <c r="O15" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="P15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" s="31" t="s">
+      <c r="Q15" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="R15" s="31" t="s">
+      <c r="R15" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S15" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="T15" s="31"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="31" t="s">
+      <c r="T15" s="32"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
         <v>154</v>
       </c>
@@ -3134,29 +3138,29 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="31" t="s">
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
         <v>155</v>
       </c>
@@ -3175,29 +3179,29 @@
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="31" t="s">
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="n">
         <v>156</v>
       </c>
@@ -3216,29 +3220,29 @@
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="31" t="s">
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="n">
         <v>158</v>
       </c>
@@ -3257,29 +3261,29 @@
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="31" t="s">
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="n">
         <v>159</v>
       </c>
@@ -3298,29 +3302,29 @@
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="31" t="s">
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="n">
         <v>160</v>
       </c>
@@ -3345,43 +3349,43 @@
       <c r="H21" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31" t="s">
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="N21" s="31" t="s">
+      <c r="N21" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O21" s="37" t="s">
+      <c r="O21" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P21" s="31" t="s">
+      <c r="P21" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="Q21" s="31" t="s">
+      <c r="Q21" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="31" t="s">
+      <c r="R21" s="32" t="s">
         <v>54</v>
       </c>
       <c r="S21" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="T21" s="31"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="31" t="s">
+      <c r="T21" s="32"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="n">
         <v>161</v>
       </c>
@@ -3400,29 +3404,29 @@
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="31" t="s">
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="n">
         <v>162</v>
       </c>
@@ -3441,29 +3445,29 @@
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="31" t="s">
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="n">
         <v>163</v>
       </c>
@@ -3482,29 +3486,29 @@
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="31" t="s">
+      <c r="K24" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="31" t="s">
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="n">
         <v>164</v>
       </c>
@@ -3523,29 +3527,29 @@
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="31" t="s">
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="n">
         <v>165</v>
       </c>
@@ -3564,29 +3568,29 @@
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K26" s="31" t="s">
+      <c r="K26" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="31" t="s">
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="n">
         <v>166</v>
       </c>
@@ -3605,29 +3609,29 @@
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="31" t="s">
+      <c r="K27" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="31" t="s">
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="n">
         <v>167</v>
       </c>
@@ -3646,29 +3650,29 @@
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K28" s="31" t="s">
+      <c r="K28" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="31" t="s">
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="n">
         <v>168</v>
       </c>
@@ -3687,29 +3691,29 @@
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="31" t="s">
+      <c r="K29" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="31" t="s">
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="26" t="n">
         <v>169</v>
       </c>
@@ -3728,29 +3732,29 @@
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
+      <c r="I30" s="37"/>
       <c r="J30" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="31" t="s">
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="n">
         <v>461</v>
       </c>
@@ -3770,28 +3774,28 @@
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
       <c r="I31" s="26"/>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="32" t="s">
         <v>108</v>
       </c>
       <c r="L31" s="26"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
       <c r="S31" s="26"/>
-      <c r="T31" s="31"/>
+      <c r="T31" s="32"/>
       <c r="U31" s="26"/>
       <c r="V31" s="26"/>
       <c r="W31" s="26" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" s="34" customFormat="true" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="35.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="n">
         <v>468</v>
       </c>
@@ -3811,21 +3815,21 @@
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="31" t="s">
+      <c r="K32" s="32" t="s">
         <v>105</v>
       </c>
       <c r="L32" s="26"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
       <c r="O32" s="26"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
       <c r="S32" s="26"/>
-      <c r="T32" s="31"/>
+      <c r="T32" s="32"/>
       <c r="U32" s="26"/>
       <c r="V32" s="26"/>
       <c r="W32" s="26" t="s">
@@ -8186,7 +8190,7 @@
       <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -8210,158 +8214,158 @@
       <c r="D1" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="44" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="43" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="44" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="44" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="44" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="44" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="43" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="44" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="45"/>
+      <c r="D12" s="46"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="45"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9334,7 +9338,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -9342,32 +9346,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
